--- a/pred_ohlcv/54_21/2019-10-26 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LBA ohlcv.xlsx
@@ -3772,7 +3772,7 @@
         <v>-535816.263501807</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-478666.3125018069</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-438349.0561018069</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-536601.2733018069</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-474615.1536018068</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-489202.0178018069</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-488202.0178018069</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-554376.8093018068</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-242295.2371018068</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-321277.2487018068</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-230460.5672018068</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-207220.8743018068</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-252392.3539018068</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-252021.3539018068</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-205202.8640895369</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-205202.8640895369</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-207541.0697895369</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-208493.0510895369</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-200441.4734895369</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-239091.3394895369</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-239091.3394895369</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-236895.2968895369</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-236895.2968895369</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-264395.2968895369</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-264395.2968895369</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-264395.2968895369</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-214395.2968895369</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-214395.2968895369</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-214395.2968895369</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-269310.2968895369</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-269310.2968895369</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LBA ohlcv.xlsx
@@ -4318,7 +4318,7 @@
         <v>-478666.3125018069</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-438349.0561018069</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-474615.1536018068</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-459617.1536018068</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-459617.1536018068</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-461302.9403018068</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-461271.3849018068</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-461807.5483018068</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-460884.1189018068</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-460870.7087018068</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-488431.2987018069</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-488419.1504018069</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-488587.1504018069</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-488587.1504018069</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-490315.0178018069</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-489202.0178018069</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-488202.0178018069</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-554376.8093018068</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-81682.38850180682</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-242305.2371018068</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-242295.2371018068</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-256066.2371018068</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-321277.2487018068</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-358877.2487018068</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-252392.3539018068</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-252021.3539018068</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-205202.8640895369</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-207541.0697895369</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-208493.0510895369</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-200441.4734895369</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-239091.3394895369</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-239091.3394895369</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-214395.2968895369</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-269310.2968895369</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-269310.2968895369</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
